--- a/BalanceSheet/PANW_bal.xlsx
+++ b/BalanceSheet/PANW_bal.xlsx
@@ -1610,19 +1610,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-5900000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-17700000.0</v>
+        <v>49000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>10000000.0</v>
+        <v>64000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-5500000.0</v>
+        <v>52000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-14800000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>74700000.0</v>
